--- a/DATA/weather/raw_weather_code.xlsx
+++ b/DATA/weather/raw_weather_code.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\빅콘프젝\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fb69a65b5fef29a/바탕 화면/이현방/빅콘테스트/Seafood_Import_Price_Prediction/DATA/weather/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B61C5B3E-1EB9-42C7-AC1E-379E8FA1EF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{B61C5B3E-1EB9-42C7-AC1E-379E8FA1EF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4A18474-C15F-40FF-95CE-FC072C2EFA50}"/>
   <bookViews>
-    <workbookView xWindow="9036" yWindow="600" windowWidth="13788" windowHeight="9984" xr2:uid="{56C8CCC1-CD7A-464C-B18D-CCBEF008637F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{56C8CCC1-CD7A-464C-B18D-CCBEF008637F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$154</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -421,10 +424,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C40E49B-EF85-4AC8-834C-C925C7389E31}">
-  <dimension ref="A1:C154"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -440,7 +444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -451,7 +455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -462,7 +466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -473,7 +477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -484,7 +488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -495,7 +499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -506,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -517,7 +521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -528,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10</v>
       </c>
@@ -539,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>11</v>
       </c>
@@ -550,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>12</v>
       </c>
@@ -561,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>13</v>
       </c>
@@ -572,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>14</v>
       </c>
@@ -583,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>15</v>
       </c>
@@ -594,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>16</v>
       </c>
@@ -605,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>17</v>
       </c>
@@ -616,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>18</v>
       </c>
@@ -627,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>19</v>
       </c>
@@ -638,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>20</v>
       </c>
@@ -649,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>21</v>
       </c>
@@ -660,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>22</v>
       </c>
@@ -671,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>23</v>
       </c>
@@ -682,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>24</v>
       </c>
@@ -693,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>25</v>
       </c>
@@ -703,8 +707,11 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>26</v>
       </c>
@@ -715,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>27</v>
       </c>
@@ -726,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>28</v>
       </c>
@@ -737,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>29</v>
       </c>
@@ -748,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>30</v>
       </c>
@@ -759,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>31</v>
       </c>
@@ -770,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>32</v>
       </c>
@@ -781,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1672,7 +1679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>114</v>
       </c>
@@ -1683,7 +1690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>115</v>
       </c>
@@ -1694,7 +1701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>116</v>
       </c>
@@ -1705,7 +1712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>117</v>
       </c>
@@ -1716,7 +1723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>118</v>
       </c>
@@ -1727,7 +1734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>119</v>
       </c>
@@ -1738,7 +1745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>120</v>
       </c>
@@ -1749,7 +1756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>121</v>
       </c>
@@ -1760,7 +1767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>122</v>
       </c>
@@ -1771,7 +1778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>123</v>
       </c>
@@ -1782,7 +1789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>124</v>
       </c>
@@ -1793,7 +1800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>125</v>
       </c>
@@ -1804,7 +1811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>126</v>
       </c>
@@ -1815,7 +1822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>127</v>
       </c>
@@ -1826,7 +1833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>128</v>
       </c>
@@ -1837,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>129</v>
       </c>
@@ -1848,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>130</v>
       </c>
@@ -1859,7 +1866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>131</v>
       </c>
@@ -1870,7 +1877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>132</v>
       </c>
@@ -1881,7 +1888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>133</v>
       </c>
@@ -1892,7 +1899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>134</v>
       </c>
@@ -1903,7 +1910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>135</v>
       </c>
@@ -1914,7 +1921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>136</v>
       </c>
@@ -1925,7 +1932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>137</v>
       </c>
@@ -1936,7 +1943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>138</v>
       </c>
@@ -1947,7 +1954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>139</v>
       </c>
@@ -1958,7 +1965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>140</v>
       </c>
@@ -1969,7 +1976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>141</v>
       </c>
@@ -1980,7 +1987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>142</v>
       </c>
@@ -1991,7 +1998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>143</v>
       </c>
@@ -2002,7 +2009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>144</v>
       </c>
@@ -2013,7 +2020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>145</v>
       </c>
@@ -2024,7 +2031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>146</v>
       </c>
@@ -2035,7 +2042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>147</v>
       </c>
@@ -2046,7 +2053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>148</v>
       </c>
@@ -2057,7 +2064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>149</v>
       </c>
@@ -2068,7 +2075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>150</v>
       </c>
@@ -2079,7 +2086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>151</v>
       </c>
@@ -2090,7 +2097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>152</v>
       </c>
@@ -2101,7 +2108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>153</v>
       </c>
@@ -2112,7 +2119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>154</v>
       </c>
@@ -2124,7 +2131,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D154" xr:uid="{0C40E49B-EF85-4AC8-834C-C925C7389E31}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="중국"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DATA/weather/raw_weather_code.xlsx
+++ b/DATA/weather/raw_weather_code.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fb69a65b5fef29a/바탕 화면/이현방/빅콘테스트/Seafood_Import_Price_Prediction/DATA/weather/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{B61C5B3E-1EB9-42C7-AC1E-379E8FA1EF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4A18474-C15F-40FF-95CE-FC072C2EFA50}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{B61C5B3E-1EB9-42C7-AC1E-379E8FA1EF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52CC0324-F155-4FB7-B0EE-F770FB269941}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{56C8CCC1-CD7A-464C-B18D-CCBEF008637F}"/>
+    <workbookView minimized="1" xWindow="13860" yWindow="3000" windowWidth="10224" windowHeight="8964" xr2:uid="{56C8CCC1-CD7A-464C-B18D-CCBEF008637F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$154</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="3">
   <si>
     <t>노르웨이</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,18 +48,6 @@
   </si>
   <si>
     <t>중국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칠레</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페루</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,11 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C40E49B-EF85-4AC8-834C-C925C7389E31}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -444,7 +431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -455,7 +442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -466,7 +453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -477,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -488,7 +475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -499,7 +486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -510,7 +497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -521,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -532,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10</v>
       </c>
@@ -543,7 +530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>11</v>
       </c>
@@ -554,7 +541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>12</v>
       </c>
@@ -565,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>13</v>
       </c>
@@ -576,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>14</v>
       </c>
@@ -587,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>15</v>
       </c>
@@ -598,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>16</v>
       </c>
@@ -609,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>17</v>
       </c>
@@ -620,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>18</v>
       </c>
@@ -631,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>19</v>
       </c>
@@ -642,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>20</v>
       </c>
@@ -653,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>21</v>
       </c>
@@ -664,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>22</v>
       </c>
@@ -675,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>23</v>
       </c>
@@ -686,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>24</v>
       </c>
@@ -697,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>25</v>
       </c>
@@ -707,11 +694,8 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>26</v>
       </c>
@@ -722,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>27</v>
       </c>
@@ -733,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>28</v>
       </c>
@@ -744,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>29</v>
       </c>
@@ -755,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>30</v>
       </c>
@@ -766,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>31</v>
       </c>
@@ -777,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>32</v>
       </c>
@@ -788,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1679,465 +1663,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A114">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155">
         <v>114</v>
       </c>
-      <c r="B114">
-        <v>85488</v>
-      </c>
-      <c r="C114" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A115">
+      <c r="B155">
+        <v>51463</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A156">
         <v>115</v>
       </c>
-      <c r="B115">
-        <v>85782</v>
-      </c>
-      <c r="C115" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A116">
-        <v>116</v>
-      </c>
-      <c r="B116">
-        <v>85766</v>
-      </c>
-      <c r="C116" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A117">
-        <v>117</v>
-      </c>
-      <c r="B117">
-        <v>85874</v>
-      </c>
-      <c r="C117" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A118">
-        <v>118</v>
-      </c>
-      <c r="B118">
-        <v>85406</v>
-      </c>
-      <c r="C118" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A119">
-        <v>119</v>
-      </c>
-      <c r="B119">
-        <v>85442</v>
-      </c>
-      <c r="C119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A120">
-        <v>120</v>
-      </c>
-      <c r="B120">
-        <v>85469</v>
-      </c>
-      <c r="C120" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A121">
-        <v>121</v>
-      </c>
-      <c r="B121">
-        <v>85418</v>
-      </c>
-      <c r="C121" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A122">
-        <v>122</v>
-      </c>
-      <c r="B122">
-        <v>85672</v>
-      </c>
-      <c r="C122" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A123">
-        <v>123</v>
-      </c>
-      <c r="B123">
-        <v>85864</v>
-      </c>
-      <c r="C123" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A124">
-        <v>124</v>
-      </c>
-      <c r="B124">
-        <v>85682</v>
-      </c>
-      <c r="C124" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A125">
-        <v>125</v>
-      </c>
-      <c r="B125">
-        <v>85629</v>
-      </c>
-      <c r="C125" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A126">
-        <v>126</v>
-      </c>
-      <c r="B126">
-        <v>85577</v>
-      </c>
-      <c r="C126" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A127">
-        <v>127</v>
-      </c>
-      <c r="B127">
-        <v>85743</v>
-      </c>
-      <c r="C127" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A128">
-        <v>128</v>
-      </c>
-      <c r="B128">
-        <v>85574</v>
-      </c>
-      <c r="C128" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A129">
-        <v>129</v>
-      </c>
-      <c r="B129">
-        <v>85799</v>
-      </c>
-      <c r="C129" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A130">
-        <v>130</v>
-      </c>
-      <c r="B130">
-        <v>85934</v>
-      </c>
-      <c r="C130" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A131">
-        <v>131</v>
-      </c>
-      <c r="B131">
-        <v>85585</v>
-      </c>
-      <c r="C131" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A132">
-        <v>132</v>
-      </c>
-      <c r="B132">
-        <v>48431</v>
-      </c>
-      <c r="C132" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A133">
-        <v>133</v>
-      </c>
-      <c r="B133">
-        <v>48400</v>
-      </c>
-      <c r="C133" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A134">
-        <v>134</v>
-      </c>
-      <c r="B134">
-        <v>48453</v>
-      </c>
-      <c r="C134" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A135">
-        <v>135</v>
-      </c>
-      <c r="B135">
-        <v>48455</v>
-      </c>
-      <c r="C135" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A136">
-        <v>136</v>
-      </c>
-      <c r="B136">
-        <v>48568</v>
-      </c>
-      <c r="C136" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A137">
-        <v>137</v>
-      </c>
-      <c r="B137">
-        <v>48462</v>
-      </c>
-      <c r="C137" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A138">
-        <v>138</v>
-      </c>
-      <c r="B138">
-        <v>48354</v>
-      </c>
-      <c r="C138" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A139">
-        <v>139</v>
-      </c>
-      <c r="B139">
-        <v>48407</v>
-      </c>
-      <c r="C139" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A140">
-        <v>140</v>
-      </c>
-      <c r="B140">
-        <v>48480</v>
-      </c>
-      <c r="C140" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A141">
-        <v>141</v>
-      </c>
-      <c r="B141">
-        <v>48517</v>
-      </c>
-      <c r="C141" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A142">
-        <v>142</v>
-      </c>
-      <c r="B142">
-        <v>48303</v>
-      </c>
-      <c r="C142" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A143">
-        <v>143</v>
-      </c>
-      <c r="B143">
-        <v>48327</v>
-      </c>
-      <c r="C143" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A144">
-        <v>144</v>
-      </c>
-      <c r="B144">
-        <v>48565</v>
-      </c>
-      <c r="C144" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A145">
-        <v>145</v>
-      </c>
-      <c r="B145">
-        <v>48500</v>
-      </c>
-      <c r="C145" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A146">
-        <v>146</v>
-      </c>
-      <c r="B146">
-        <v>48378</v>
-      </c>
-      <c r="C146" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A147">
-        <v>147</v>
-      </c>
-      <c r="B147">
-        <v>84628</v>
-      </c>
-      <c r="C147" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A148">
-        <v>148</v>
-      </c>
-      <c r="B148">
-        <v>84515</v>
-      </c>
-      <c r="C148" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A149">
-        <v>149</v>
-      </c>
-      <c r="B149">
-        <v>84752</v>
-      </c>
-      <c r="C149" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A150">
-        <v>150</v>
-      </c>
-      <c r="B150">
-        <v>84377</v>
-      </c>
-      <c r="C150" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A151">
-        <v>151</v>
-      </c>
-      <c r="B151">
-        <v>84452</v>
-      </c>
-      <c r="C151" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A152">
-        <v>152</v>
-      </c>
-      <c r="B152">
-        <v>84686</v>
-      </c>
-      <c r="C152" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A153">
-        <v>153</v>
-      </c>
-      <c r="B153">
-        <v>84691</v>
-      </c>
-      <c r="C153" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A154">
-        <v>154</v>
-      </c>
-      <c r="B154">
-        <v>84401</v>
-      </c>
-      <c r="C154" t="s">
-        <v>5</v>
+      <c r="B156">
+        <v>52495</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D154" xr:uid="{0C40E49B-EF85-4AC8-834C-C925C7389E31}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="중국"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
